--- a/irecodes-master/leak_demand_t5.xlsx
+++ b/irecodes-master/leak_demand_t5.xlsx
@@ -741,85 +741,85 @@
         <v>0</v>
       </c>
       <c r="W2">
-        <v>0.001234775253712129</v>
+        <v>0.001118658944907298</v>
       </c>
       <c r="X2">
-        <v>0.001234773580222067</v>
+        <v>0.001118658940278889</v>
       </c>
       <c r="Y2">
-        <v>0.001234775585550055</v>
+        <v>0.001118658945775264</v>
       </c>
       <c r="Z2">
-        <v>0.001234779712196204</v>
+        <v>0.001118658957042909</v>
       </c>
       <c r="AA2">
-        <v>0.001234779332853479</v>
+        <v>0.001118658955929292</v>
       </c>
       <c r="AB2">
-        <v>0.001234778879814166</v>
+        <v>0.001118658954618245</v>
       </c>
       <c r="AC2">
-        <v>0.001234761971790874</v>
+        <v>0.001118658908158508</v>
       </c>
       <c r="AD2">
-        <v>0.001234747476808969</v>
+        <v>0.001118658868601263</v>
       </c>
       <c r="AE2">
-        <v>0.001234744535377026</v>
+        <v>0.001118658860810988</v>
       </c>
       <c r="AF2">
-        <v>0.001234744792479404</v>
+        <v>0.001118658861505791</v>
       </c>
       <c r="AG2">
-        <v>0.001234744224682825</v>
+        <v>0.001118658859954931</v>
       </c>
       <c r="AH2">
-        <v>0.001234773805698107</v>
+        <v>0.001118658940880537</v>
       </c>
       <c r="AI2">
-        <v>0.001234771312245039</v>
+        <v>0.001118658933974831</v>
       </c>
       <c r="AJ2">
-        <v>0.001234775316208144</v>
+        <v>0.001118658944971565</v>
       </c>
       <c r="AK2">
-        <v>0.001234769518499175</v>
+        <v>0.001118658928605851</v>
       </c>
       <c r="AL2">
-        <v>0.001234748028405071</v>
+        <v>0.001118658870095462</v>
       </c>
       <c r="AM2">
-        <v>0.001234746043694109</v>
+        <v>0.001118658864911559</v>
       </c>
       <c r="AN2">
-        <v>0.001234745154176995</v>
+        <v>0.001118658862505207</v>
       </c>
       <c r="AO2">
-        <v>0.0012347443749298</v>
+        <v>0.001118658860368612</v>
       </c>
       <c r="AP2">
-        <v>0.001234744757948787</v>
+        <v>0.001118658861418395</v>
       </c>
       <c r="AQ2">
-        <v>0.001234744060205518</v>
+        <v>0.001118658859435944</v>
       </c>
       <c r="AR2">
-        <v>0.001234768930463936</v>
+        <v>0.001118658927257689</v>
       </c>
       <c r="AS2">
-        <v>0.00123476601613525</v>
+        <v>0.001118658918829245</v>
       </c>
       <c r="AT2">
-        <v>0.001234756334278877</v>
+        <v>0.001118658892611467</v>
       </c>
       <c r="AU2">
-        <v>0.001234747637883774</v>
+        <v>0.001118658869287693</v>
       </c>
       <c r="AV2">
-        <v>0.001234745354736561</v>
+        <v>0.001118658863070777</v>
       </c>
       <c r="AW2">
-        <v>0.001234744296833988</v>
+        <v>0.00111865886009213</v>
       </c>
       <c r="AX2">
         <v>0</v>
